--- a/test.xlsx
+++ b/test.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kristian/Dropbox/Home/coding/xmlyze/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2109FA80-3D5C-694A-9B13-1BB57D2D7CF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A86BA74-E997-264F-AAC9-324501B14E7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3260" yWindow="2160" windowWidth="28040" windowHeight="17440" xr2:uid="{21459283-2947-7E47-9D1F-CEB35E8C06FF}"/>
+    <workbookView xWindow="1640" yWindow="2320" windowWidth="28040" windowHeight="17440" xr2:uid="{21459283-2947-7E47-9D1F-CEB35E8C06FF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,10 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
-  <si>
-    <t>p</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Hello World</t>
   </si>
@@ -47,13 +44,22 @@
     <t>paragraph</t>
   </si>
   <si>
-    <t>// Ignore</t>
-  </si>
-  <si>
     <t>purple</t>
   </si>
   <si>
     <t>Hello Again</t>
+  </si>
+  <si>
+    <t>Let's try this out</t>
+  </si>
+  <si>
+    <t>hehe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     // Ignore</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     p</t>
   </si>
 </sst>
 </file>
@@ -425,43 +431,53 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DABFE800-D097-7545-8A42-4067DC28C4D0}">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="173" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="B9">
         <v>18</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B12" t="s">
         <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B10" t="s">
-        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/test.xlsx
+++ b/test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kristian/Dropbox/Home/coding/xmlyze/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A86BA74-E997-264F-AAC9-324501B14E7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82B720D6-CFC9-1C48-8CAA-701BBC3D22BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1640" yWindow="2320" windowWidth="28040" windowHeight="17440" xr2:uid="{21459283-2947-7E47-9D1F-CEB35E8C06FF}"/>
   </bookViews>
@@ -41,9 +41,6 @@
     <t>Hello World</t>
   </si>
   <si>
-    <t>paragraph</t>
-  </si>
-  <si>
     <t>purple</t>
   </si>
   <si>
@@ -60,6 +57,9 @@
   </si>
   <si>
     <t xml:space="preserve">     p</t>
+  </si>
+  <si>
+    <t>PARAgrAPH</t>
   </si>
 </sst>
 </file>
@@ -434,14 +434,14 @@
   <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="173" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -451,33 +451,33 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B9">
         <v>18</v>
       </c>
       <c r="D9" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/test.xlsx
+++ b/test.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kristian/Dropbox/Home/coding/xmlyze/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82B720D6-CFC9-1C48-8CAA-701BBC3D22BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53B9EBA5-D2D1-034C-A30E-5C57A698A9E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1640" yWindow="2320" windowWidth="28040" windowHeight="17440" xr2:uid="{21459283-2947-7E47-9D1F-CEB35E8C06FF}"/>
+    <workbookView xWindow="8840" yWindow="2640" windowWidth="28040" windowHeight="17440" xr2:uid="{21459283-2947-7E47-9D1F-CEB35E8C06FF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,43 +36,60 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
-  <si>
-    <t>Hello World</t>
-  </si>
-  <si>
-    <t>purple</t>
-  </si>
-  <si>
-    <t>Hello Again</t>
-  </si>
-  <si>
-    <t>Let's try this out</t>
-  </si>
-  <si>
-    <t>hehe</t>
-  </si>
-  <si>
-    <t xml:space="preserve">     // Ignore</t>
-  </si>
-  <si>
-    <t xml:space="preserve">     p</t>
-  </si>
-  <si>
-    <t>PARAgrAPH</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+  <si>
+    <t>paragraph</t>
+  </si>
+  <si>
+    <t>paRAgrAPH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    p</t>
+  </si>
+  <si>
+    <t>smack my ass</t>
+  </si>
+  <si>
+    <t>like a drum!</t>
+  </si>
+  <si>
+    <t>papiiii</t>
+  </si>
+  <si>
+    <t>glug glug glug</t>
+  </si>
+  <si>
+    <t>// don't look at this shit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    yes daddy!!!!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    // aaughhgh!!!</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Source Code Pro"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -95,8 +112,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -431,54 +450,124 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DABFE800-D097-7545-8A42-4067DC28C4D0}">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="173" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="2"/>
+      <c r="B2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="2"/>
+      <c r="B3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="2"/>
+      <c r="B5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="2"/>
+      <c r="B7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="2"/>
+      <c r="B8" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9">
-        <v>18</v>
-      </c>
-      <c r="D9" t="s">
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B10" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B12" t="s">
-        <v>3</v>
-      </c>
+      <c r="B10" s="1"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="2"/>
+      <c r="B12" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/test.xlsx
+++ b/test.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kristian/Dropbox/Home/coding/xmlyze/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53B9EBA5-D2D1-034C-A30E-5C57A698A9E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75971DEA-C6D2-114B-B25A-42FFB182E424}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8840" yWindow="2640" windowWidth="28040" windowHeight="17440" xr2:uid="{21459283-2947-7E47-9D1F-CEB35E8C06FF}"/>
+    <workbookView xWindow="6520" yWindow="2640" windowWidth="28040" windowHeight="17440" xr2:uid="{21459283-2947-7E47-9D1F-CEB35E8C06FF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -453,7 +453,7 @@
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="173" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/test.xlsx
+++ b/test.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kristian/Dropbox/Home/coding/xmlyze/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75971DEA-C6D2-114B-B25A-42FFB182E424}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61041773-8B3B-044C-8A06-462C9B2B5EEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6520" yWindow="2640" windowWidth="28040" windowHeight="17440" xr2:uid="{21459283-2947-7E47-9D1F-CEB35E8C06FF}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="16960" windowHeight="20440" xr2:uid="{21459283-2947-7E47-9D1F-CEB35E8C06FF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,36 +36,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
-    <t>paragraph</t>
+    <t>style</t>
   </si>
   <si>
-    <t>paRAgrAPH</t>
+    <t>font=Aptos</t>
   </si>
   <si>
-    <t xml:space="preserve">    p</t>
+    <t>Name=Text</t>
   </si>
   <si>
-    <t>smack my ass</t>
+    <t>PARENT  =null</t>
   </si>
   <si>
-    <t>like a drum!</t>
+    <t>coloR=   000000</t>
   </si>
   <si>
-    <t>papiiii</t>
-  </si>
-  <si>
-    <t>glug glug glug</t>
-  </si>
-  <si>
-    <t>// don't look at this shit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    yes daddy!!!!</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    // aaughhgh!!!</t>
+    <t>siZE = 12</t>
   </si>
 </sst>
 </file>
@@ -450,120 +438,113 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DABFE800-D097-7545-8A42-4067DC28C4D0}">
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="173" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="2"/>
-      <c r="B2" s="1" t="s">
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="D1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" s="2"/>
+      <c r="B2" s="1"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="2"/>
-      <c r="B3" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="B3" s="1"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="2"/>
-      <c r="B5" s="1" t="s">
-        <v>5</v>
-      </c>
+      <c r="B5" s="1"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
-        <v>2</v>
-      </c>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" s="1"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="2"/>
-      <c r="B7" s="1" t="s">
-        <v>6</v>
-      </c>
+      <c r="B7" s="1"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="2"/>
-      <c r="B8" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="B8" s="1"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
-        <v>1</v>
-      </c>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="2"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="2"/>
-      <c r="B12" s="1" t="s">
-        <v>8</v>
-      </c>
+      <c r="B12" s="1"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="1" t="s">
-        <v>9</v>
-      </c>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" s="1"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>

--- a/test.xlsx
+++ b/test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kristian/Dropbox/Home/coding/xmlyze/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61041773-8B3B-044C-8A06-462C9B2B5EEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FB31B98-22FB-A64D-9B72-03F745232376}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="16960" windowHeight="20440" xr2:uid="{21459283-2947-7E47-9D1F-CEB35E8C06FF}"/>
   </bookViews>
@@ -50,10 +50,10 @@
     <t>PARENT  =null</t>
   </si>
   <si>
-    <t>coloR=   000000</t>
+    <t>siZE = 12</t>
   </si>
   <si>
-    <t>siZE = 12</t>
+    <t>coloR=   00ff00</t>
   </si>
 </sst>
 </file>
@@ -441,7 +441,7 @@
   <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="173" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -457,10 +457,10 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>1</v>

--- a/test.xlsx
+++ b/test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kristian/Dropbox/Home/coding/xmlyze/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FB31B98-22FB-A64D-9B72-03F745232376}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01052CB3-D2AC-7C47-B1D3-E95A4260DB59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="16960" windowHeight="20440" xr2:uid="{21459283-2947-7E47-9D1F-CEB35E8C06FF}"/>
   </bookViews>
@@ -36,7 +36,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+  <si>
+    <t>paragraph</t>
+  </si>
   <si>
     <t>style</t>
   </si>
@@ -44,16 +47,28 @@
     <t>font=Aptos</t>
   </si>
   <si>
-    <t>Name=Text</t>
-  </si>
-  <si>
     <t>PARENT  =null</t>
   </si>
   <si>
     <t>siZE = 12</t>
   </si>
   <si>
-    <t>coloR=   00ff00</t>
+    <t>This is a paragraph.</t>
+  </si>
+  <si>
+    <t>This is another paragraph.</t>
+  </si>
+  <si>
+    <t>Lorem ipsum dolor sit amet, consectetur adipiscing elit, sed do eiusmod tempor incididunt ut labore et dolore magna aliqua. Ut enim ad minim veniam, quis nostrud exercitation ullamco laboris nisi ut aliquip ex ea commodo consequat. Duis aute irure dolor in reprehenderit in voluptate velit esse cillum dolore eu fugiat nulla pariatur. Excepteur sint occaecat cupidatat non proident, sunt in culpa qui officia deserunt mollit anim id est laborum.</t>
+  </si>
+  <si>
+    <t>Name=Example</t>
+  </si>
+  <si>
+    <t>coloR=   0000ff</t>
+  </si>
+  <si>
+    <t>style=Example</t>
   </si>
 </sst>
 </file>
@@ -441,55 +456,65 @@
   <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="173" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="2"/>
-      <c r="B2" s="1"/>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="2"/>
-      <c r="B3" s="1"/>
+      <c r="B3" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
+      <c r="B4" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="2"/>
-      <c r="B5" s="1"/>
+      <c r="B5" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>

--- a/test.xlsx
+++ b/test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kristian/Dropbox/Home/coding/xmlyze/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01052CB3-D2AC-7C47-B1D3-E95A4260DB59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5052EFDA-1C8C-2245-8B9D-C01F00CB10A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="16960" windowHeight="20440" xr2:uid="{21459283-2947-7E47-9D1F-CEB35E8C06FF}"/>
   </bookViews>
@@ -62,13 +62,13 @@
     <t>Lorem ipsum dolor sit amet, consectetur adipiscing elit, sed do eiusmod tempor incididunt ut labore et dolore magna aliqua. Ut enim ad minim veniam, quis nostrud exercitation ullamco laboris nisi ut aliquip ex ea commodo consequat. Duis aute irure dolor in reprehenderit in voluptate velit esse cillum dolore eu fugiat nulla pariatur. Excepteur sint occaecat cupidatat non proident, sunt in culpa qui officia deserunt mollit anim id est laborum.</t>
   </si>
   <si>
-    <t>Name=Example</t>
-  </si>
-  <si>
     <t>coloR=   0000ff</t>
   </si>
   <si>
-    <t>style=Example</t>
+    <t>Name=Smack My Ass</t>
+  </si>
+  <si>
+    <t>style=smack my ass</t>
   </si>
 </sst>
 </file>
@@ -456,7 +456,7 @@
   <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="173" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -466,13 +466,13 @@
         <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>4</v>

--- a/test.xlsx
+++ b/test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kristian/Dropbox/Home/coding/xmlyze/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5052EFDA-1C8C-2245-8B9D-C01F00CB10A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59C5951C-B362-244E-B4D6-B4AB5C91CA7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="16960" windowHeight="20440" xr2:uid="{21459283-2947-7E47-9D1F-CEB35E8C06FF}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>paragraph</t>
   </si>
@@ -44,15 +44,6 @@
     <t>style</t>
   </si>
   <si>
-    <t>font=Aptos</t>
-  </si>
-  <si>
-    <t>PARENT  =null</t>
-  </si>
-  <si>
-    <t>siZE = 12</t>
-  </si>
-  <si>
     <t>This is a paragraph.</t>
   </si>
   <si>
@@ -62,13 +53,19 @@
     <t>Lorem ipsum dolor sit amet, consectetur adipiscing elit, sed do eiusmod tempor incididunt ut labore et dolore magna aliqua. Ut enim ad minim veniam, quis nostrud exercitation ullamco laboris nisi ut aliquip ex ea commodo consequat. Duis aute irure dolor in reprehenderit in voluptate velit esse cillum dolore eu fugiat nulla pariatur. Excepteur sint occaecat cupidatat non proident, sunt in culpa qui officia deserunt mollit anim id est laborum.</t>
   </si>
   <si>
-    <t>coloR=   0000ff</t>
-  </si>
-  <si>
     <t>Name=Smack My Ass</t>
   </si>
   <si>
     <t>style=smack my ass</t>
+  </si>
+  <si>
+    <t>siZE = 24</t>
+  </si>
+  <si>
+    <t>font=impact</t>
+  </si>
+  <si>
+    <t>coloR=   00f</t>
   </si>
 </sst>
 </file>
@@ -456,7 +453,7 @@
   <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="173" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -466,19 +463,17 @@
         <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
@@ -486,7 +481,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
@@ -495,7 +490,7 @@
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="2"/>
       <c r="B3" s="1" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
@@ -504,7 +499,7 @@
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="2"/>
       <c r="B4" s="1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
@@ -513,7 +508,7 @@
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="2"/>
       <c r="B5" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>

--- a/test.xlsx
+++ b/test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kristian/Dropbox/Home/coding/xmlyze/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59C5951C-B362-244E-B4D6-B4AB5C91CA7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C42A7B78-7693-9E47-A1AD-610931889B75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="16960" windowHeight="20440" xr2:uid="{21459283-2947-7E47-9D1F-CEB35E8C06FF}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="10">
   <si>
     <t>paragraph</t>
   </si>
@@ -453,7 +453,7 @@
   <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="173" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -506,31 +506,37 @@
       <c r="E4" s="2"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="2"/>
+      <c r="A5" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="B5" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" s="1"/>
-      <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" s="2"/>
-      <c r="B7" s="1"/>
+      <c r="A7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="2"/>
-      <c r="B8" s="1"/>
+      <c r="B8" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>

--- a/test.xlsx
+++ b/test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kristian/Dropbox/Home/coding/xmlyze/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C42A7B78-7693-9E47-A1AD-610931889B75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E328918D-4679-1742-9294-3AEE58D6B08D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="16960" windowHeight="20440" xr2:uid="{21459283-2947-7E47-9D1F-CEB35E8C06FF}"/>
   </bookViews>
@@ -35,28 +35,41 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata">
+  <metadataTypes count="1">
+    <metadataType name="XLRICHVALUE" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLRICHVALUE" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <valueMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </valueMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
-    <t>paragraph</t>
+    <t>p</t>
   </si>
   <si>
     <t>style</t>
-  </si>
-  <si>
-    <t>This is a paragraph.</t>
-  </si>
-  <si>
-    <t>This is another paragraph.</t>
   </si>
   <si>
     <t>Lorem ipsum dolor sit amet, consectetur adipiscing elit, sed do eiusmod tempor incididunt ut labore et dolore magna aliqua. Ut enim ad minim veniam, quis nostrud exercitation ullamco laboris nisi ut aliquip ex ea commodo consequat. Duis aute irure dolor in reprehenderit in voluptate velit esse cillum dolore eu fugiat nulla pariatur. Excepteur sint occaecat cupidatat non proident, sunt in culpa qui officia deserunt mollit anim id est laborum.</t>
   </si>
   <si>
     <t>Name=Smack My Ass</t>
-  </si>
-  <si>
-    <t>style=smack my ass</t>
   </si>
   <si>
     <t>siZE = 24</t>
@@ -131,6 +144,70 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/richData/rdRichValueTypes.xml><?xml version="1.0" encoding="utf-8"?>
+<rvTypesInfo xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x">
+  <global>
+    <keyFlags>
+      <key name="_Self">
+        <flag name="ExcludeFromFile" value="1"/>
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_DisplayString">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Flags">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Format">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_SubLabel">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Attribution">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Icon">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Display">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_CanonicalPropertyNames">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_ClassificationId">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+    </keyFlags>
+  </global>
+</rvTypesInfo>
+</file>
+
+<file path=xl/richData/rdrichvalue.xml><?xml version="1.0" encoding="utf-8"?>
+<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="1">
+  <rv s="0">
+    <v>0</v>
+    <v>5</v>
+  </rv>
+</rvData>
+</file>
+
+<file path=xl/richData/rdrichvaluestructure.xml><?xml version="1.0" encoding="utf-8"?>
+<rvStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="1">
+  <s t="_localImage">
+    <k n="_rvRel:LocalImageIdentifier" t="i"/>
+    <k n="CalcOrigin" t="i"/>
+  </s>
+</rvStructures>
+</file>
+
+<file path=xl/richData/richValueRel.xml><?xml version="1.0" encoding="utf-8"?>
+<richValueRels xmlns="http://schemas.microsoft.com/office/spreadsheetml/2022/richvaluerel" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <rel r:id="rId1"/>
+</richValueRels>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -453,7 +530,7 @@
   <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="173" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -463,26 +540,24 @@
         <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>6</v>
-      </c>
+      <c r="B2" s="1"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
@@ -498,20 +573,16 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="2"/>
-      <c r="B4" s="1" t="s">
-        <v>3</v>
+      <c r="B4" s="1" t="e" vm="1">
+        <v>#VALUE!</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>6</v>
-      </c>
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
@@ -522,21 +593,13 @@
       <c r="E6" s="2"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>6</v>
-      </c>
+      <c r="A7" s="1"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="2"/>
-      <c r="B8" s="1" t="s">
-        <v>4</v>
-      </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>

--- a/test.xlsx
+++ b/test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kristian/Dropbox/Home/coding/xmlyze/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E328918D-4679-1742-9294-3AEE58D6B08D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32D5E710-9F31-F646-92E4-AE8A1BFF4D0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="16960" windowHeight="20440" xr2:uid="{21459283-2947-7E47-9D1F-CEB35E8C06FF}"/>
   </bookViews>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>p</t>
   </si>
@@ -70,6 +70,9 @@
   </si>
   <si>
     <t>Name=Smack My Ass</t>
+  </si>
+  <si>
+    <t>style=smack my ass</t>
   </si>
   <si>
     <t>siZE = 24</t>
@@ -530,7 +533,7 @@
   <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="173" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="C3" sqref="C3:C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -544,39 +547,39 @@
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>6</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="1"/>
+      <c r="B2" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="2"/>
-      <c r="B3" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="2"/>
-      <c r="B4" s="1" t="e" vm="1">
+      <c r="C4" s="1" t="e" vm="1">
         <v>#VALUE!</v>
       </c>
-      <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
     </row>
@@ -588,7 +591,6 @@
       <c r="E5" s="2"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
     </row>
